--- a/Data Analytics/Assignment1/Task1.xlsx
+++ b/Data Analytics/Assignment1/Task1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Tracker\TuteDude\Data Analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Tracker\TuteDude\Data Analytics\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90F5CC0-231E-4995-9301-C87F6B0D1130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D16F3C3-7133-4A3E-8D5F-35DFF6494533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{119FFD2E-DF9A-4614-80DF-2C37D91FE65E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{119FFD2E-DF9A-4614-80DF-2C37D91FE65E}"/>
   </bookViews>
   <sheets>
     <sheet name="Student_Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
@@ -64,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -72,14 +72,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,44 +416,45 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D9F11A-360E-415A-88CB-676DBBD8F605}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,27 +463,11 @@
     <col min="3" max="3" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
